--- a/Clean data with Power Query.xlsx
+++ b/Clean data with Power Query.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Labs\DAX301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A0D25-8F5B-4698-91D8-3110EEB2870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F4E09-D47C-4AB0-801B-4D7E0405D14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -1052,7 +1052,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1065,7 +1065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1862,19 +1861,19 @@
       <c r="E2">
         <v>277</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2">
@@ -1892,11 +1891,6 @@
       <c r="Q2">
         <v>0.44897959183673469</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AF2" s="8"/>
       <c r="AG2">
         <v>74</v>
       </c>
@@ -1968,19 +1962,19 @@
       <c r="E3">
         <v>1024</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3">
@@ -1992,11 +1986,6 @@
       <c r="N3">
         <v>0.38</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AF3" s="8"/>
       <c r="AG3">
         <v>21</v>
       </c>
@@ -2054,19 +2043,19 @@
       <c r="E4">
         <v>1328</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2075,11 +2064,6 @@
       <c r="L4">
         <v>999</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AF4" s="8"/>
       <c r="AG4">
         <v>38</v>
       </c>
@@ -2134,19 +2118,19 @@
       <c r="E5">
         <v>3826</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5">
@@ -2155,11 +2139,6 @@
       <c r="L5">
         <v>999</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AF5" s="8"/>
       <c r="AG5">
         <v>82</v>
       </c>
@@ -2214,19 +2193,19 @@
       <c r="E6">
         <v>254</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
       <c r="K6">
@@ -2235,11 +2214,6 @@
       <c r="L6">
         <v>999</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AF6" s="8"/>
       <c r="AG6">
         <v>15</v>
       </c>
@@ -2294,19 +2268,19 @@
       <c r="E7">
         <v>530</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7">
@@ -2315,11 +2289,6 @@
       <c r="L7">
         <v>999</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AF7" s="8"/>
       <c r="AG7">
         <v>48</v>
       </c>
@@ -2374,19 +2343,19 @@
       <c r="E8">
         <v>2179</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8">
@@ -2395,11 +2364,6 @@
       <c r="L8">
         <v>999</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AF8" s="8"/>
       <c r="AG8">
         <v>51</v>
       </c>
@@ -2454,19 +2418,19 @@
       <c r="E9">
         <v>1366</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9">
@@ -2475,11 +2439,6 @@
       <c r="L9">
         <v>999</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AF9" s="8"/>
       <c r="AG9">
         <v>71</v>
       </c>
@@ -2534,19 +2493,19 @@
       <c r="E10">
         <v>1453</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10">
@@ -2555,11 +2514,6 @@
       <c r="L10">
         <v>999</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AF10" s="8"/>
       <c r="AG10">
         <v>36</v>
       </c>
@@ -2614,19 +2568,19 @@
       <c r="E11">
         <v>1493</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2650,19 +2604,19 @@
       <c r="S11" t="s">
         <v>4</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" t="s">
         <v>5</v>
       </c>
       <c r="U11" t="s">
         <v>6</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" t="s">
         <v>7</v>
       </c>
       <c r="W11" t="s">
         <v>140</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" t="s">
         <v>9</v>
       </c>
       <c r="Y11" t="s">
@@ -2671,7 +2625,7 @@
       <c r="Z11" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="8" t="s">
+      <c r="AA11" t="s">
         <v>142</v>
       </c>
       <c r="AB11" t="s">
@@ -2686,7 +2640,7 @@
       <c r="AE11" t="s">
         <v>141</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" t="s">
         <v>145</v>
       </c>
       <c r="AG11">
@@ -2743,19 +2697,19 @@
       <c r="E12">
         <v>7155</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12">
@@ -2779,19 +2733,19 @@
       <c r="S12">
         <v>277</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" t="s">
         <v>12</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" t="s">
         <v>13</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" t="s">
         <v>20</v>
       </c>
       <c r="Y12">
@@ -2800,7 +2754,6 @@
       <c r="Z12">
         <v>999</v>
       </c>
-      <c r="AA12" s="8"/>
       <c r="AC12">
         <v>0.41836734693877553</v>
       </c>
@@ -2810,7 +2763,6 @@
       <c r="AE12">
         <v>0.44897959183673469</v>
       </c>
-      <c r="AF12" s="8"/>
       <c r="AG12">
         <v>49</v>
       </c>
@@ -2865,19 +2817,19 @@
       <c r="E13">
         <v>509</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" t="s">
         <v>20</v>
       </c>
       <c r="K13">
@@ -2901,19 +2853,19 @@
       <c r="S13">
         <v>1024</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" t="s">
         <v>15</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="V13" t="s">
         <v>13</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X13" t="s">
         <v>20</v>
       </c>
       <c r="Y13">
@@ -2922,11 +2874,9 @@
       <c r="Z13">
         <v>999</v>
       </c>
-      <c r="AA13" s="8"/>
       <c r="AB13">
         <v>0.38</v>
       </c>
-      <c r="AF13" s="8"/>
       <c r="AG13">
         <v>87</v>
       </c>
@@ -2981,19 +2931,19 @@
       <c r="E14">
         <v>447</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" t="s">
         <v>22</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" t="s">
         <v>23</v>
       </c>
       <c r="K14">
@@ -3017,19 +2967,19 @@
       <c r="S14">
         <v>1328</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" t="s">
         <v>15</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" t="s">
         <v>13</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" t="s">
         <v>20</v>
       </c>
       <c r="Y14">
@@ -3038,8 +2988,6 @@
       <c r="Z14">
         <v>999</v>
       </c>
-      <c r="AA14" s="8"/>
-      <c r="AF14" s="8"/>
       <c r="AG14">
         <v>3</v>
       </c>
@@ -3094,19 +3042,19 @@
       <c r="E15">
         <v>2157</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15">
@@ -3130,19 +3078,19 @@
       <c r="S15">
         <v>3826</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" t="s">
         <v>15</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="V15" t="s">
         <v>13</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" t="s">
         <v>20</v>
       </c>
       <c r="Y15">
@@ -3151,8 +3099,6 @@
       <c r="Z15">
         <v>999</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AF15" s="8"/>
       <c r="AG15">
         <v>53</v>
       </c>
@@ -3207,19 +3153,19 @@
       <c r="E16">
         <v>179</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" t="s">
         <v>23</v>
       </c>
       <c r="K16">
@@ -3243,19 +3189,19 @@
       <c r="S16">
         <v>254</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" t="s">
         <v>16</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16" s="8" t="s">
+      <c r="V16" t="s">
         <v>13</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="X16" s="8" t="s">
+      <c r="X16" t="s">
         <v>20</v>
       </c>
       <c r="Y16">
@@ -3264,8 +3210,6 @@
       <c r="Z16">
         <v>999</v>
       </c>
-      <c r="AA16" s="8"/>
-      <c r="AF16" s="8"/>
       <c r="AG16">
         <v>79</v>
       </c>
@@ -3320,19 +3264,19 @@
       <c r="E17">
         <v>1514</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="K17">
@@ -3356,19 +3300,19 @@
       <c r="S17">
         <v>530</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" t="s">
         <v>17</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" t="s">
         <v>13</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
-      <c r="X17" s="8" t="s">
+      <c r="X17" t="s">
         <v>20</v>
       </c>
       <c r="Y17">
@@ -3377,8 +3321,6 @@
       <c r="Z17">
         <v>999</v>
       </c>
-      <c r="AA17" s="8"/>
-      <c r="AF17" s="8"/>
       <c r="AG17">
         <v>23</v>
       </c>
@@ -3433,19 +3375,19 @@
       <c r="E18">
         <v>3425</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" t="s">
         <v>21</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18">
@@ -3469,19 +3411,19 @@
       <c r="S18">
         <v>2179</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" t="s">
         <v>18</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="V18" t="s">
         <v>13</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
-      <c r="X18" s="8" t="s">
+      <c r="X18" t="s">
         <v>20</v>
       </c>
       <c r="Y18">
@@ -3490,8 +3432,6 @@
       <c r="Z18">
         <v>999</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AF18" s="8"/>
       <c r="AG18">
         <v>63</v>
       </c>
@@ -3546,19 +3486,19 @@
       <c r="E19">
         <v>11132</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" t="s">
         <v>23</v>
       </c>
       <c r="K19">
@@ -3582,19 +3522,19 @@
       <c r="S19">
         <v>1366</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" t="s">
         <v>17</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19" s="8" t="s">
+      <c r="V19" t="s">
         <v>13</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="X19" t="s">
         <v>20</v>
       </c>
       <c r="Y19">
@@ -3603,8 +3543,6 @@
       <c r="Z19">
         <v>999</v>
       </c>
-      <c r="AA19" s="8"/>
-      <c r="AF19" s="8"/>
       <c r="AG19">
         <v>25</v>
       </c>
@@ -3659,19 +3597,19 @@
       <c r="E20">
         <v>4812</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" t="s">
         <v>24</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20">
@@ -3695,19 +3633,19 @@
       <c r="S20">
         <v>1453</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" t="s">
         <v>19</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20" s="8" t="s">
+      <c r="V20" t="s">
         <v>13</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" t="s">
         <v>20</v>
       </c>
       <c r="Y20">
@@ -3716,8 +3654,6 @@
       <c r="Z20">
         <v>999</v>
       </c>
-      <c r="AA20" s="8"/>
-      <c r="AF20" s="8"/>
       <c r="AG20">
         <v>54</v>
       </c>
@@ -3772,19 +3708,19 @@
       <c r="E21">
         <v>7916</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" t="s">
         <v>25</v>
       </c>
       <c r="K21">
@@ -3808,19 +3744,19 @@
       <c r="S21">
         <v>1493</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" t="s">
         <v>12</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" s="8" t="s">
+      <c r="V21" t="s">
         <v>13</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="X21" t="s">
         <v>20</v>
       </c>
       <c r="Y21">
@@ -3829,8 +3765,6 @@
       <c r="Z21">
         <v>999</v>
       </c>
-      <c r="AA21" s="8"/>
-      <c r="AF21" s="8"/>
       <c r="AG21">
         <v>40</v>
       </c>
@@ -3885,19 +3819,19 @@
       <c r="E22">
         <v>3155</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" t="s">
         <v>25</v>
       </c>
       <c r="K22">
@@ -3921,19 +3855,19 @@
       <c r="S22">
         <v>7155</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" t="s">
         <v>21</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" s="8" t="s">
+      <c r="V22" t="s">
         <v>13</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" t="s">
         <v>20</v>
       </c>
       <c r="Y22">
@@ -3942,8 +3876,6 @@
       <c r="Z22">
         <v>999</v>
       </c>
-      <c r="AA22" s="8"/>
-      <c r="AF22" s="8"/>
       <c r="AG22">
         <v>59</v>
       </c>
@@ -3998,19 +3930,19 @@
       <c r="E23">
         <v>38</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" t="s">
         <v>25</v>
       </c>
       <c r="K23">
@@ -4034,19 +3966,19 @@
       <c r="S23">
         <v>509</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" t="s">
         <v>12</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23" s="8" t="s">
+      <c r="V23" t="s">
         <v>13</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
-      <c r="X23" s="8" t="s">
+      <c r="X23" t="s">
         <v>20</v>
       </c>
       <c r="Y23">
@@ -4055,8 +3987,6 @@
       <c r="Z23">
         <v>999</v>
       </c>
-      <c r="AA23" s="8"/>
-      <c r="AF23" s="8"/>
       <c r="AG23">
         <v>88</v>
       </c>
@@ -4111,19 +4041,19 @@
       <c r="E24">
         <v>1717</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" t="s">
         <v>24</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" t="s">
         <v>25</v>
       </c>
       <c r="K24">
@@ -4147,19 +4077,19 @@
       <c r="S24">
         <v>447</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" t="s">
         <v>12</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="V24" t="s">
         <v>22</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" s="8" t="s">
+      <c r="X24" t="s">
         <v>23</v>
       </c>
       <c r="Y24">
@@ -4168,8 +4098,6 @@
       <c r="Z24">
         <v>999</v>
       </c>
-      <c r="AA24" s="8"/>
-      <c r="AF24" s="8"/>
       <c r="AG24">
         <v>8</v>
       </c>
@@ -4224,19 +4152,19 @@
       <c r="E25">
         <v>837</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" t="s">
         <v>25</v>
       </c>
       <c r="K25">
@@ -4260,19 +4188,19 @@
       <c r="S25">
         <v>2157</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="T25" t="s">
         <v>21</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25" s="8" t="s">
+      <c r="V25" t="s">
         <v>13</v>
       </c>
       <c r="W25">
         <v>1</v>
       </c>
-      <c r="X25" s="8" t="s">
+      <c r="X25" t="s">
         <v>23</v>
       </c>
       <c r="Y25">
@@ -4281,8 +4209,6 @@
       <c r="Z25">
         <v>999</v>
       </c>
-      <c r="AA25" s="8"/>
-      <c r="AF25" s="8"/>
       <c r="AG25">
         <v>14</v>
       </c>
@@ -4337,19 +4263,19 @@
       <c r="E26">
         <v>14267</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" t="s">
         <v>21</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" t="s">
         <v>25</v>
       </c>
       <c r="K26">
@@ -4373,19 +4299,19 @@
       <c r="S26">
         <v>179</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" t="s">
         <v>17</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26" s="8" t="s">
+      <c r="V26" t="s">
         <v>13</v>
       </c>
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" s="8" t="s">
+      <c r="X26" t="s">
         <v>23</v>
       </c>
       <c r="Y26">
@@ -4394,8 +4320,6 @@
       <c r="Z26">
         <v>999</v>
       </c>
-      <c r="AA26" s="8"/>
-      <c r="AF26" s="8"/>
       <c r="AG26">
         <v>11</v>
       </c>
@@ -4450,19 +4374,19 @@
       <c r="E27">
         <v>1147</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" t="s">
         <v>25</v>
       </c>
       <c r="K27">
@@ -4486,19 +4410,19 @@
       <c r="S27">
         <v>1514</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" t="s">
         <v>15</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27" s="8" t="s">
+      <c r="V27" t="s">
         <v>13</v>
       </c>
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="X27" s="8" t="s">
+      <c r="X27" t="s">
         <v>23</v>
       </c>
       <c r="Y27">
@@ -4507,8 +4431,6 @@
       <c r="Z27">
         <v>999</v>
       </c>
-      <c r="AA27" s="8"/>
-      <c r="AF27" s="8"/>
       <c r="AG27">
         <v>90</v>
       </c>
@@ -4563,19 +4485,19 @@
       <c r="E28">
         <v>1247</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" t="s">
         <v>25</v>
       </c>
       <c r="K28">
@@ -4599,19 +4521,19 @@
       <c r="S28">
         <v>3425</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" t="s">
         <v>21</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" s="8" t="s">
+      <c r="V28" t="s">
         <v>13</v>
       </c>
       <c r="W28">
         <v>1</v>
       </c>
-      <c r="X28" s="8" t="s">
+      <c r="X28" t="s">
         <v>23</v>
       </c>
       <c r="Y28">
@@ -4620,8 +4542,6 @@
       <c r="Z28">
         <v>999</v>
       </c>
-      <c r="AA28" s="8"/>
-      <c r="AF28" s="8"/>
       <c r="AG28">
         <v>72</v>
       </c>
@@ -4676,19 +4596,19 @@
       <c r="E29">
         <v>3199</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" t="s">
         <v>28</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" t="s">
         <v>13</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" t="s">
         <v>25</v>
       </c>
       <c r="K29">
@@ -4712,19 +4632,19 @@
       <c r="S29">
         <v>11132</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" t="s">
         <v>12</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" t="s">
         <v>13</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
-      <c r="X29" s="8" t="s">
+      <c r="X29" t="s">
         <v>23</v>
       </c>
       <c r="Y29">
@@ -4733,8 +4653,6 @@
       <c r="Z29">
         <v>999</v>
       </c>
-      <c r="AA29" s="8"/>
-      <c r="AF29" s="8"/>
       <c r="AG29">
         <v>58</v>
       </c>
@@ -4789,19 +4707,19 @@
       <c r="E30">
         <v>1273</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" t="s">
         <v>25</v>
       </c>
       <c r="K30">
@@ -4825,19 +4743,19 @@
       <c r="S30">
         <v>4812</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="T30" t="s">
         <v>12</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30" s="8" t="s">
+      <c r="V30" t="s">
         <v>24</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" s="8" t="s">
+      <c r="X30" t="s">
         <v>23</v>
       </c>
       <c r="Y30">
@@ -4846,8 +4764,6 @@
       <c r="Z30">
         <v>999</v>
       </c>
-      <c r="AA30" s="8"/>
-      <c r="AF30" s="8"/>
       <c r="AG30">
         <v>13</v>
       </c>
@@ -4902,19 +4818,19 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" t="s">
         <v>25</v>
       </c>
       <c r="K31">
@@ -4938,19 +4854,19 @@
       <c r="S31">
         <v>7916</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" t="s">
         <v>12</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31" s="8" t="s">
+      <c r="V31" t="s">
         <v>13</v>
       </c>
       <c r="W31">
         <v>1</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" t="s">
         <v>25</v>
       </c>
       <c r="Y31">
@@ -4959,8 +4875,6 @@
       <c r="Z31">
         <v>999</v>
       </c>
-      <c r="AA31" s="8"/>
-      <c r="AF31" s="8"/>
       <c r="AG31">
         <v>73</v>
       </c>
@@ -5015,19 +4929,19 @@
       <c r="E32">
         <v>1276</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>29</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" t="s">
         <v>13</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" t="s">
         <v>25</v>
       </c>
       <c r="K32">
@@ -5051,19 +4965,19 @@
       <c r="S32">
         <v>3155</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" t="s">
         <v>17</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" t="s">
         <v>13</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
-      <c r="X32" s="8" t="s">
+      <c r="X32" t="s">
         <v>25</v>
       </c>
       <c r="Y32">
@@ -5072,8 +4986,6 @@
       <c r="Z32">
         <v>999</v>
       </c>
-      <c r="AA32" s="8"/>
-      <c r="AF32" s="8"/>
       <c r="AG32">
         <v>41</v>
       </c>
@@ -5128,19 +5040,19 @@
       <c r="E33">
         <v>163</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" t="s">
         <v>15</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" t="s">
         <v>13</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" t="s">
         <v>25</v>
       </c>
       <c r="K33">
@@ -5164,19 +5076,19 @@
       <c r="S33">
         <v>38</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="T33" t="s">
         <v>17</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33" s="8" t="s">
+      <c r="V33" t="s">
         <v>13</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33" s="8" t="s">
+      <c r="X33" t="s">
         <v>25</v>
       </c>
       <c r="Y33">
@@ -5185,8 +5097,6 @@
       <c r="Z33">
         <v>999</v>
       </c>
-      <c r="AA33" s="8"/>
-      <c r="AF33" s="8"/>
       <c r="AG33">
         <v>94</v>
       </c>
@@ -5241,19 +5151,19 @@
       <c r="E34">
         <v>3685</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" t="s">
         <v>30</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" t="s">
         <v>13</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" t="s">
         <v>25</v>
       </c>
       <c r="K34">
@@ -5277,19 +5187,19 @@
       <c r="S34">
         <v>1717</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" t="s">
         <v>26</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34" s="8" t="s">
+      <c r="V34" t="s">
         <v>24</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" s="8" t="s">
+      <c r="X34" t="s">
         <v>25</v>
       </c>
       <c r="Y34">
@@ -5298,8 +5208,6 @@
       <c r="Z34">
         <v>999</v>
       </c>
-      <c r="AA34" s="8"/>
-      <c r="AF34" s="8"/>
       <c r="AG34">
         <v>68</v>
       </c>
@@ -5354,19 +5262,19 @@
       <c r="E35">
         <v>3522</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" t="s">
         <v>21</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" t="s">
         <v>13</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" t="s">
         <v>25</v>
       </c>
       <c r="K35">
@@ -5390,19 +5298,19 @@
       <c r="S35">
         <v>837</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="T35" t="s">
         <v>27</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="V35" s="8" t="s">
+      <c r="V35" t="s">
         <v>13</v>
       </c>
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35" s="8" t="s">
+      <c r="X35" t="s">
         <v>25</v>
       </c>
       <c r="Y35">
@@ -5411,8 +5319,6 @@
       <c r="Z35">
         <v>999</v>
       </c>
-      <c r="AA35" s="8"/>
-      <c r="AF35" s="8"/>
       <c r="AG35">
         <v>95</v>
       </c>
@@ -5467,19 +5373,19 @@
       <c r="E36">
         <v>166</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" t="s">
         <v>13</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" t="s">
         <v>25</v>
       </c>
       <c r="K36">
@@ -5503,19 +5409,19 @@
       <c r="S36">
         <v>14267</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="T36" t="s">
         <v>21</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" s="8" t="s">
+      <c r="V36" t="s">
         <v>13</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
-      <c r="X36" s="8" t="s">
+      <c r="X36" t="s">
         <v>25</v>
       </c>
       <c r="Y36">
@@ -5524,8 +5430,6 @@
       <c r="Z36">
         <v>999</v>
       </c>
-      <c r="AA36" s="8"/>
-      <c r="AF36" s="8"/>
       <c r="AG36">
         <v>96</v>
       </c>
@@ -5580,19 +5484,19 @@
       <c r="E37">
         <v>1793</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" t="s">
         <v>13</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" t="s">
         <v>25</v>
       </c>
       <c r="K37">
@@ -5616,19 +5520,19 @@
       <c r="S37">
         <v>1147</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="T37" t="s">
         <v>17</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37" s="8" t="s">
+      <c r="V37" t="s">
         <v>13</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37" s="8" t="s">
+      <c r="X37" t="s">
         <v>25</v>
       </c>
       <c r="Y37">
@@ -5637,8 +5541,6 @@
       <c r="Z37">
         <v>999</v>
       </c>
-      <c r="AA37" s="8"/>
-      <c r="AF37" s="8"/>
       <c r="AG37">
         <v>4</v>
       </c>
@@ -5693,19 +5595,19 @@
       <c r="E38">
         <v>410</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" t="s">
         <v>13</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" t="s">
         <v>25</v>
       </c>
       <c r="K38">
@@ -5729,19 +5631,19 @@
       <c r="S38">
         <v>1247</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" t="s">
         <v>17</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="V38" s="8" t="s">
+      <c r="V38" t="s">
         <v>13</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
-      <c r="X38" s="8" t="s">
+      <c r="X38" t="s">
         <v>25</v>
       </c>
       <c r="Y38">
@@ -5750,8 +5652,6 @@
       <c r="Z38">
         <v>999</v>
       </c>
-      <c r="AA38" s="8"/>
-      <c r="AF38" s="8"/>
       <c r="AG38">
         <v>50</v>
       </c>
@@ -5806,19 +5706,19 @@
       <c r="E39">
         <v>1920</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" t="s">
         <v>31</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" t="s">
         <v>32</v>
       </c>
       <c r="K39">
@@ -5842,19 +5742,19 @@
       <c r="S39">
         <v>3199</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" t="s">
         <v>28</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="V39" s="8" t="s">
+      <c r="V39" t="s">
         <v>13</v>
       </c>
       <c r="W39">
         <v>1</v>
       </c>
-      <c r="X39" s="8" t="s">
+      <c r="X39" t="s">
         <v>25</v>
       </c>
       <c r="Y39">
@@ -5863,8 +5763,6 @@
       <c r="Z39">
         <v>999</v>
       </c>
-      <c r="AA39" s="8"/>
-      <c r="AF39" s="8"/>
       <c r="AG39">
         <v>52</v>
       </c>
@@ -5919,19 +5817,19 @@
       <c r="E40">
         <v>313</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" t="s">
         <v>15</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" t="s">
         <v>13</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" t="s">
         <v>32</v>
       </c>
       <c r="K40">
@@ -5955,19 +5853,19 @@
       <c r="S40">
         <v>1273</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" t="s">
         <v>12</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="V40" s="8" t="s">
+      <c r="V40" t="s">
         <v>13</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" t="s">
         <v>25</v>
       </c>
       <c r="Y40">
@@ -5976,8 +5874,6 @@
       <c r="Z40">
         <v>999</v>
       </c>
-      <c r="AA40" s="8"/>
-      <c r="AF40" s="8"/>
       <c r="AG40">
         <v>28</v>
       </c>
@@ -6032,19 +5928,19 @@
       <c r="E41">
         <v>4779</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" t="s">
         <v>13</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" t="s">
         <v>32</v>
       </c>
       <c r="K41">
@@ -6068,19 +5964,19 @@
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="T41" t="s">
         <v>17</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="V41" s="8" t="s">
+      <c r="V41" t="s">
         <v>13</v>
       </c>
       <c r="W41">
         <v>1</v>
       </c>
-      <c r="X41" s="8" t="s">
+      <c r="X41" t="s">
         <v>25</v>
       </c>
       <c r="Y41">
@@ -6089,8 +5985,6 @@
       <c r="Z41">
         <v>999</v>
       </c>
-      <c r="AA41" s="8"/>
-      <c r="AF41" s="8"/>
       <c r="AG41">
         <v>1</v>
       </c>
@@ -6145,19 +6039,19 @@
       <c r="E42">
         <v>83</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" t="s">
         <v>13</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" t="s">
         <v>32</v>
       </c>
       <c r="K42">
@@ -6181,19 +6075,19 @@
       <c r="S42">
         <v>1276</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="T42" t="s">
         <v>29</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42" s="8" t="s">
+      <c r="V42" t="s">
         <v>13</v>
       </c>
       <c r="W42">
         <v>1</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" t="s">
         <v>25</v>
       </c>
       <c r="Y42">
@@ -6202,8 +6096,6 @@
       <c r="Z42">
         <v>999</v>
       </c>
-      <c r="AA42" s="8"/>
-      <c r="AF42" s="8"/>
       <c r="AG42">
         <v>62</v>
       </c>
@@ -6258,19 +6150,19 @@
       <c r="E43">
         <v>5791</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" t="s">
         <v>21</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" t="s">
         <v>13</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" t="s">
         <v>32</v>
       </c>
       <c r="K43">
@@ -6294,19 +6186,19 @@
       <c r="S43">
         <v>163</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="T43" t="s">
         <v>15</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="V43" s="8" t="s">
+      <c r="V43" t="s">
         <v>13</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
-      <c r="X43" s="8" t="s">
+      <c r="X43" t="s">
         <v>25</v>
       </c>
       <c r="Y43">
@@ -6315,8 +6207,6 @@
       <c r="Z43">
         <v>999</v>
       </c>
-      <c r="AA43" s="8"/>
-      <c r="AF43" s="8"/>
       <c r="AG43">
         <v>45</v>
       </c>
@@ -6371,19 +6261,19 @@
       <c r="E44">
         <v>347</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" t="s">
         <v>15</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" t="s">
         <v>32</v>
       </c>
       <c r="K44">
@@ -6407,19 +6297,19 @@
       <c r="S44">
         <v>3685</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="T44" t="s">
         <v>30</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="V44" s="8" t="s">
+      <c r="V44" t="s">
         <v>13</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
-      <c r="X44" s="8" t="s">
+      <c r="X44" t="s">
         <v>25</v>
       </c>
       <c r="Y44">
@@ -6428,8 +6318,6 @@
       <c r="Z44">
         <v>999</v>
       </c>
-      <c r="AA44" s="8"/>
-      <c r="AF44" s="8"/>
       <c r="AG44">
         <v>32</v>
       </c>
@@ -6484,19 +6372,19 @@
       <c r="E45">
         <v>91</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" t="s">
         <v>13</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" t="s">
         <v>32</v>
       </c>
       <c r="K45">
@@ -6520,19 +6408,19 @@
       <c r="S45">
         <v>3522</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="T45" t="s">
         <v>21</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="V45" s="8" t="s">
+      <c r="V45" t="s">
         <v>13</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
-      <c r="X45" s="8" t="s">
+      <c r="X45" t="s">
         <v>25</v>
       </c>
       <c r="Y45">
@@ -6541,8 +6429,6 @@
       <c r="Z45">
         <v>999</v>
       </c>
-      <c r="AA45" s="8"/>
-      <c r="AF45" s="8"/>
       <c r="AG45">
         <v>75</v>
       </c>
@@ -6597,19 +6483,19 @@
       <c r="E46">
         <v>18106</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" t="s">
         <v>21</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" t="s">
         <v>13</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" t="s">
         <v>32</v>
       </c>
       <c r="K46">
@@ -6633,19 +6519,19 @@
       <c r="S46">
         <v>166</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T46" t="s">
         <v>12</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46" s="8" t="s">
+      <c r="V46" t="s">
         <v>13</v>
       </c>
       <c r="W46">
         <v>1</v>
       </c>
-      <c r="X46" s="8" t="s">
+      <c r="X46" t="s">
         <v>25</v>
       </c>
       <c r="Y46">
@@ -6654,8 +6540,6 @@
       <c r="Z46">
         <v>999</v>
       </c>
-      <c r="AA46" s="8"/>
-      <c r="AF46" s="8"/>
       <c r="AG46">
         <v>24</v>
       </c>
@@ -6710,19 +6594,19 @@
       <c r="E47">
         <v>7974</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" t="s">
         <v>34</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" t="s">
         <v>35</v>
       </c>
       <c r="K47">
@@ -6746,19 +6630,19 @@
       <c r="S47">
         <v>1793</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="T47" t="s">
         <v>12</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47" s="8" t="s">
+      <c r="V47" t="s">
         <v>13</v>
       </c>
       <c r="W47">
         <v>1</v>
       </c>
-      <c r="X47" s="8" t="s">
+      <c r="X47" t="s">
         <v>25</v>
       </c>
       <c r="Y47">
@@ -6767,8 +6651,6 @@
       <c r="Z47">
         <v>999</v>
       </c>
-      <c r="AA47" s="8"/>
-      <c r="AF47" s="8"/>
       <c r="AG47">
         <v>35</v>
       </c>
@@ -6823,19 +6705,19 @@
       <c r="E48">
         <v>4171</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" t="s">
         <v>26</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" t="s">
         <v>36</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" t="s">
         <v>37</v>
       </c>
       <c r="K48">
@@ -6859,19 +6741,19 @@
       <c r="S48">
         <v>410</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="T48" t="s">
         <v>15</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
-      <c r="V48" s="8" t="s">
+      <c r="V48" t="s">
         <v>13</v>
       </c>
       <c r="W48">
         <v>1</v>
       </c>
-      <c r="X48" s="8" t="s">
+      <c r="X48" t="s">
         <v>25</v>
       </c>
       <c r="Y48">
@@ -6880,8 +6762,6 @@
       <c r="Z48">
         <v>999</v>
       </c>
-      <c r="AA48" s="8"/>
-      <c r="AF48" s="8"/>
       <c r="AG48">
         <v>39</v>
       </c>
@@ -6936,19 +6816,19 @@
       <c r="E49">
         <v>4023</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" t="s">
         <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" t="s">
         <v>39</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" t="s">
         <v>40</v>
       </c>
       <c r="K49">
@@ -6972,19 +6852,19 @@
       <c r="S49">
         <v>1920</v>
       </c>
-      <c r="T49" s="8" t="s">
+      <c r="T49" t="s">
         <v>18</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
-      <c r="V49" s="8" t="s">
+      <c r="V49" t="s">
         <v>31</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" s="8" t="s">
+      <c r="X49" t="s">
         <v>32</v>
       </c>
       <c r="Y49">
@@ -6993,8 +6873,6 @@
       <c r="Z49">
         <v>999</v>
       </c>
-      <c r="AA49" s="8"/>
-      <c r="AF49" s="8"/>
       <c r="AG49">
         <v>66</v>
       </c>
@@ -7049,19 +6927,19 @@
       <c r="E50">
         <v>767</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" t="s">
         <v>15</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" t="s">
         <v>41</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
@@ -7085,19 +6963,19 @@
       <c r="S50">
         <v>313</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="T50" t="s">
         <v>15</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
-      <c r="V50" s="8" t="s">
+      <c r="V50" t="s">
         <v>13</v>
       </c>
       <c r="W50">
         <v>1</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="X50" t="s">
         <v>32</v>
       </c>
       <c r="Y50">
@@ -7106,8 +6984,6 @@
       <c r="Z50">
         <v>999</v>
       </c>
-      <c r="AA50" s="8"/>
-      <c r="AF50" s="8"/>
       <c r="AG50">
         <v>17</v>
       </c>
@@ -7162,19 +7038,19 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" t="s">
         <v>43</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" t="s">
         <v>44</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" t="s">
         <v>45</v>
       </c>
       <c r="K51">
@@ -7198,19 +7074,19 @@
       <c r="S51">
         <v>4779</v>
       </c>
-      <c r="T51" s="8" t="s">
+      <c r="T51" t="s">
         <v>12</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
-      <c r="V51" s="8" t="s">
+      <c r="V51" t="s">
         <v>13</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
-      <c r="X51" s="8" t="s">
+      <c r="X51" t="s">
         <v>32</v>
       </c>
       <c r="Y51">
@@ -7219,8 +7095,6 @@
       <c r="Z51">
         <v>999</v>
       </c>
-      <c r="AA51" s="8"/>
-      <c r="AF51" s="8"/>
       <c r="AG51">
         <v>9</v>
       </c>
@@ -7275,19 +7149,19 @@
       <c r="E52">
         <v>3854</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" t="s">
         <v>29</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" t="s">
         <v>46</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
@@ -7311,19 +7185,19 @@
       <c r="S52">
         <v>83</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="T52" t="s">
         <v>15</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
-      <c r="V52" s="8" t="s">
+      <c r="V52" t="s">
         <v>13</v>
       </c>
       <c r="W52">
         <v>1</v>
       </c>
-      <c r="X52" s="8" t="s">
+      <c r="X52" t="s">
         <v>32</v>
       </c>
       <c r="Y52">
@@ -7332,8 +7206,6 @@
       <c r="Z52">
         <v>999</v>
       </c>
-      <c r="AA52" s="8"/>
-      <c r="AF52" s="8"/>
       <c r="AG52">
         <v>84</v>
       </c>
@@ -7388,19 +7260,19 @@
       <c r="E53">
         <v>4802</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" t="s">
         <v>38</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" t="s">
         <v>48</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
@@ -7424,19 +7296,19 @@
       <c r="S53">
         <v>5791</v>
       </c>
-      <c r="T53" s="8" t="s">
+      <c r="T53" t="s">
         <v>21</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
-      <c r="V53" s="8" t="s">
+      <c r="V53" t="s">
         <v>13</v>
       </c>
       <c r="W53">
         <v>1</v>
       </c>
-      <c r="X53" s="8" t="s">
+      <c r="X53" t="s">
         <v>32</v>
       </c>
       <c r="Y53">
@@ -7445,8 +7317,6 @@
       <c r="Z53">
         <v>999</v>
       </c>
-      <c r="AA53" s="8"/>
-      <c r="AF53" s="8"/>
       <c r="AG53">
         <v>56</v>
       </c>
@@ -7501,19 +7371,19 @@
       <c r="E54">
         <v>299</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" t="s">
         <v>27</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" t="s">
         <v>50</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" t="s">
         <v>51</v>
       </c>
       <c r="K54">
@@ -7537,19 +7407,19 @@
       <c r="S54">
         <v>347</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="T54" t="s">
         <v>15</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
-      <c r="V54" s="8" t="s">
+      <c r="V54" t="s">
         <v>33</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54" s="8" t="s">
+      <c r="X54" t="s">
         <v>32</v>
       </c>
       <c r="Y54">
@@ -7558,8 +7428,6 @@
       <c r="Z54">
         <v>999</v>
       </c>
-      <c r="AA54" s="8"/>
-      <c r="AF54" s="8"/>
       <c r="AG54">
         <v>93</v>
       </c>
@@ -7614,19 +7482,19 @@
       <c r="E55">
         <v>1492</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" t="s">
         <v>52</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" t="s">
         <v>53</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" t="s">
         <v>54</v>
       </c>
       <c r="K55">
@@ -7650,19 +7518,19 @@
       <c r="S55">
         <v>91</v>
       </c>
-      <c r="T55" s="8" t="s">
+      <c r="T55" t="s">
         <v>15</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
-      <c r="V55" s="8" t="s">
+      <c r="V55" t="s">
         <v>13</v>
       </c>
       <c r="W55">
         <v>1</v>
       </c>
-      <c r="X55" s="8" t="s">
+      <c r="X55" t="s">
         <v>32</v>
       </c>
       <c r="Y55">
@@ -7671,8 +7539,6 @@
       <c r="Z55">
         <v>999</v>
       </c>
-      <c r="AA55" s="8"/>
-      <c r="AF55" s="8"/>
       <c r="AG55">
         <v>12</v>
       </c>
@@ -7727,19 +7593,19 @@
       <c r="E56">
         <v>684</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" t="s">
         <v>55</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" t="s">
         <v>56</v>
       </c>
       <c r="K56">
@@ -7763,19 +7629,19 @@
       <c r="S56">
         <v>18106</v>
       </c>
-      <c r="T56" s="8" t="s">
+      <c r="T56" t="s">
         <v>21</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
-      <c r="V56" s="8" t="s">
+      <c r="V56" t="s">
         <v>13</v>
       </c>
       <c r="W56">
         <v>1</v>
       </c>
-      <c r="X56" s="8" t="s">
+      <c r="X56" t="s">
         <v>32</v>
       </c>
       <c r="Y56">
@@ -7784,8 +7650,6 @@
       <c r="Z56">
         <v>999</v>
       </c>
-      <c r="AA56" s="8"/>
-      <c r="AF56" s="8"/>
       <c r="AG56">
         <v>44</v>
       </c>
@@ -7840,19 +7704,19 @@
       <c r="E57">
         <v>201</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" t="s">
         <v>57</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" t="s">
         <v>58</v>
       </c>
       <c r="K57">
@@ -7876,19 +7740,19 @@
       <c r="S57">
         <v>7974</v>
       </c>
-      <c r="T57" s="8" t="s">
+      <c r="T57" t="s">
         <v>12</v>
       </c>
       <c r="U57">
         <v>1</v>
       </c>
-      <c r="V57" s="8" t="s">
+      <c r="V57" t="s">
         <v>34</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57" s="8" t="s">
+      <c r="X57" t="s">
         <v>35</v>
       </c>
       <c r="Y57">
@@ -7897,8 +7761,6 @@
       <c r="Z57">
         <v>12</v>
       </c>
-      <c r="AA57" s="8"/>
-      <c r="AF57" s="8"/>
       <c r="AG57">
         <v>29</v>
       </c>
@@ -7953,19 +7815,19 @@
       <c r="E58">
         <v>1288</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" t="s">
         <v>21</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" t="s">
         <v>59</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" t="s">
         <v>60</v>
       </c>
       <c r="K58">
@@ -7989,19 +7851,19 @@
       <c r="S58">
         <v>4171</v>
       </c>
-      <c r="T58" s="8" t="s">
+      <c r="T58" t="s">
         <v>26</v>
       </c>
       <c r="U58">
         <v>1</v>
       </c>
-      <c r="V58" s="8" t="s">
+      <c r="V58" t="s">
         <v>36</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
-      <c r="X58" s="8" t="s">
+      <c r="X58" t="s">
         <v>37</v>
       </c>
       <c r="Y58">
@@ -8010,8 +7872,6 @@
       <c r="Z58">
         <v>999</v>
       </c>
-      <c r="AA58" s="8"/>
-      <c r="AF58" s="8"/>
       <c r="AG58">
         <v>92</v>
       </c>
@@ -8066,19 +7926,19 @@
       <c r="E59">
         <v>1309</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" t="s">
         <v>21</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" t="s">
         <v>61</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" t="s">
         <v>62</v>
       </c>
       <c r="K59">
@@ -8102,19 +7962,19 @@
       <c r="S59">
         <v>4023</v>
       </c>
-      <c r="T59" s="8" t="s">
+      <c r="T59" t="s">
         <v>38</v>
       </c>
       <c r="U59">
         <v>1</v>
       </c>
-      <c r="V59" s="8" t="s">
+      <c r="V59" t="s">
         <v>39</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
-      <c r="X59" s="8" t="s">
+      <c r="X59" t="s">
         <v>40</v>
       </c>
       <c r="Y59">
@@ -8123,8 +7983,6 @@
       <c r="Z59">
         <v>2</v>
       </c>
-      <c r="AA59" s="8"/>
-      <c r="AF59" s="8"/>
       <c r="AG59">
         <v>98</v>
       </c>
@@ -8179,19 +8037,19 @@
       <c r="E60">
         <v>1775</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" t="s">
         <v>21</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" t="s">
         <v>63</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" t="s">
         <v>64</v>
       </c>
       <c r="K60">
@@ -8215,19 +8073,19 @@
       <c r="S60">
         <v>767</v>
       </c>
-      <c r="T60" s="8" t="s">
+      <c r="T60" t="s">
         <v>15</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
-      <c r="V60" s="8" t="s">
+      <c r="V60" t="s">
         <v>41</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
-      <c r="X60" s="8" t="s">
+      <c r="X60" t="s">
         <v>42</v>
       </c>
       <c r="Y60">
@@ -8236,8 +8094,6 @@
       <c r="Z60">
         <v>1</v>
       </c>
-      <c r="AA60" s="8"/>
-      <c r="AF60" s="8"/>
       <c r="AG60">
         <v>76</v>
       </c>
@@ -8292,19 +8148,19 @@
       <c r="E61">
         <v>7621</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" t="s">
         <v>28</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" t="s">
         <v>65</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" t="s">
         <v>66</v>
       </c>
       <c r="K61">
@@ -8328,19 +8184,19 @@
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="T61" s="8" t="s">
+      <c r="T61" t="s">
         <v>43</v>
       </c>
       <c r="U61">
         <v>1</v>
       </c>
-      <c r="V61" s="8" t="s">
+      <c r="V61" t="s">
         <v>44</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
-      <c r="X61" s="8" t="s">
+      <c r="X61" t="s">
         <v>45</v>
       </c>
       <c r="Y61">
@@ -8349,8 +8205,6 @@
       <c r="Z61">
         <v>999</v>
       </c>
-      <c r="AA61" s="8"/>
-      <c r="AF61" s="8"/>
       <c r="AG61">
         <v>7</v>
       </c>
@@ -8405,19 +8259,19 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" t="s">
         <v>52</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" t="s">
         <v>67</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" t="s">
         <v>68</v>
       </c>
       <c r="K62">
@@ -8441,19 +8295,19 @@
       <c r="S62">
         <v>3854</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="T62" t="s">
         <v>29</v>
       </c>
       <c r="U62">
         <v>1</v>
       </c>
-      <c r="V62" s="8" t="s">
+      <c r="V62" t="s">
         <v>46</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
-      <c r="X62" s="8" t="s">
+      <c r="X62" t="s">
         <v>47</v>
       </c>
       <c r="Y62">
@@ -8462,8 +8316,6 @@
       <c r="Z62">
         <v>1</v>
       </c>
-      <c r="AA62" s="8"/>
-      <c r="AF62" s="8"/>
       <c r="AG62">
         <v>91</v>
       </c>
@@ -8518,19 +8370,19 @@
       <c r="E63">
         <v>644</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" t="s">
         <v>69</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" t="s">
         <v>70</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" t="s">
         <v>71</v>
       </c>
       <c r="K63">
@@ -8554,19 +8406,19 @@
       <c r="S63">
         <v>4802</v>
       </c>
-      <c r="T63" s="8" t="s">
+      <c r="T63" t="s">
         <v>38</v>
       </c>
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="V63" s="8" t="s">
+      <c r="V63" t="s">
         <v>48</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
-      <c r="X63" s="8" t="s">
+      <c r="X63" t="s">
         <v>49</v>
       </c>
       <c r="Y63">
@@ -8575,8 +8427,6 @@
       <c r="Z63">
         <v>3</v>
       </c>
-      <c r="AA63" s="8"/>
-      <c r="AF63" s="8"/>
       <c r="AG63">
         <v>69</v>
       </c>
@@ -8631,19 +8481,19 @@
       <c r="E64">
         <v>296</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" t="s">
         <v>27</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" t="s">
         <v>72</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" t="s">
         <v>73</v>
       </c>
       <c r="K64">
@@ -8667,19 +8517,19 @@
       <c r="S64">
         <v>299</v>
       </c>
-      <c r="T64" s="8" t="s">
+      <c r="T64" t="s">
         <v>27</v>
       </c>
       <c r="U64">
         <v>1</v>
       </c>
-      <c r="V64" s="8" t="s">
+      <c r="V64" t="s">
         <v>50</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
-      <c r="X64" s="8" t="s">
+      <c r="X64" t="s">
         <v>51</v>
       </c>
       <c r="Y64">
@@ -8688,8 +8538,6 @@
       <c r="Z64">
         <v>999</v>
       </c>
-      <c r="AA64" s="8"/>
-      <c r="AF64" s="8"/>
       <c r="AG64">
         <v>67</v>
       </c>
@@ -8744,19 +8592,19 @@
       <c r="E65">
         <v>10144</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" t="s">
         <v>21</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" t="s">
         <v>74</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" t="s">
         <v>75</v>
       </c>
       <c r="K65">
@@ -8780,19 +8628,19 @@
       <c r="S65">
         <v>1492</v>
       </c>
-      <c r="T65" s="8" t="s">
+      <c r="T65" t="s">
         <v>52</v>
       </c>
       <c r="U65">
         <v>1</v>
       </c>
-      <c r="V65" s="8" t="s">
+      <c r="V65" t="s">
         <v>53</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
-      <c r="X65" s="8" t="s">
+      <c r="X65" t="s">
         <v>54</v>
       </c>
       <c r="Y65">
@@ -8801,8 +8649,6 @@
       <c r="Z65">
         <v>12</v>
       </c>
-      <c r="AA65" s="8"/>
-      <c r="AF65" s="8"/>
       <c r="AG65">
         <v>60</v>
       </c>
@@ -8857,19 +8703,19 @@
       <c r="E66">
         <v>2360</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" t="s">
         <v>76</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" t="s">
         <v>77</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" t="s">
         <v>78</v>
       </c>
       <c r="K66">
@@ -8893,19 +8739,19 @@
       <c r="S66">
         <v>684</v>
       </c>
-      <c r="T66" s="8" t="s">
+      <c r="T66" t="s">
         <v>12</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
-      <c r="V66" s="8" t="s">
+      <c r="V66" t="s">
         <v>55</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
-      <c r="X66" s="8" t="s">
+      <c r="X66" t="s">
         <v>56</v>
       </c>
       <c r="Y66">
@@ -8914,8 +8760,6 @@
       <c r="Z66">
         <v>3</v>
       </c>
-      <c r="AA66" s="8"/>
-      <c r="AF66" s="8"/>
       <c r="AG66">
         <v>81</v>
       </c>
@@ -8970,19 +8814,19 @@
       <c r="E67">
         <v>4272</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" t="s">
         <v>52</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" t="s">
         <v>79</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" t="s">
         <v>80</v>
       </c>
       <c r="K67">
@@ -9006,19 +8850,19 @@
       <c r="S67">
         <v>201</v>
       </c>
-      <c r="T67" s="8" t="s">
+      <c r="T67" t="s">
         <v>12</v>
       </c>
       <c r="U67">
         <v>1</v>
       </c>
-      <c r="V67" s="8" t="s">
+      <c r="V67" t="s">
         <v>57</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
-      <c r="X67" s="8" t="s">
+      <c r="X67" t="s">
         <v>58</v>
       </c>
       <c r="Y67">
@@ -9027,8 +8871,6 @@
       <c r="Z67">
         <v>6</v>
       </c>
-      <c r="AA67" s="8"/>
-      <c r="AF67" s="8"/>
       <c r="AG67">
         <v>70</v>
       </c>
@@ -9083,19 +8925,19 @@
       <c r="E68">
         <v>2432</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" t="s">
         <v>29</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" t="s">
         <v>81</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" t="s">
         <v>82</v>
       </c>
       <c r="K68">
@@ -9119,19 +8961,19 @@
       <c r="S68">
         <v>1288</v>
       </c>
-      <c r="T68" s="8" t="s">
+      <c r="T68" t="s">
         <v>21</v>
       </c>
       <c r="U68">
         <v>1</v>
       </c>
-      <c r="V68" s="8" t="s">
+      <c r="V68" t="s">
         <v>59</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
-      <c r="X68" s="8" t="s">
+      <c r="X68" t="s">
         <v>60</v>
       </c>
       <c r="Y68">
@@ -9140,8 +8982,6 @@
       <c r="Z68">
         <v>3</v>
       </c>
-      <c r="AA68" s="8"/>
-      <c r="AF68" s="8"/>
       <c r="AG68">
         <v>30</v>
       </c>
@@ -9196,19 +9036,19 @@
       <c r="E69">
         <v>420</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" t="s">
         <v>15</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" t="s">
         <v>55</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" t="s">
         <v>83</v>
       </c>
       <c r="K69">
@@ -9232,19 +9072,19 @@
       <c r="S69">
         <v>1309</v>
       </c>
-      <c r="T69" s="8" t="s">
+      <c r="T69" t="s">
         <v>21</v>
       </c>
       <c r="U69">
         <v>1</v>
       </c>
-      <c r="V69" s="8" t="s">
+      <c r="V69" t="s">
         <v>61</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
-      <c r="X69" s="8" t="s">
+      <c r="X69" t="s">
         <v>62</v>
       </c>
       <c r="Y69">
@@ -9253,8 +9093,6 @@
       <c r="Z69">
         <v>4</v>
       </c>
-      <c r="AA69" s="8"/>
-      <c r="AF69" s="8"/>
       <c r="AG69">
         <v>64</v>
       </c>
@@ -9309,19 +9147,19 @@
       <c r="E70">
         <v>216</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" t="s">
         <v>15</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" t="s">
         <v>84</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" t="s">
         <v>85</v>
       </c>
       <c r="K70">
@@ -9345,19 +9183,19 @@
       <c r="S70">
         <v>1775</v>
       </c>
-      <c r="T70" s="8" t="s">
+      <c r="T70" t="s">
         <v>21</v>
       </c>
       <c r="U70">
         <v>1</v>
       </c>
-      <c r="V70" s="8" t="s">
+      <c r="V70" t="s">
         <v>63</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
-      <c r="X70" s="8" t="s">
+      <c r="X70" t="s">
         <v>64</v>
       </c>
       <c r="Y70">
@@ -9366,8 +9204,6 @@
       <c r="Z70">
         <v>999</v>
       </c>
-      <c r="AA70" s="8"/>
-      <c r="AF70" s="8"/>
       <c r="AG70">
         <v>83</v>
       </c>
@@ -9422,19 +9258,19 @@
       <c r="E71">
         <v>311</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" t="s">
         <v>86</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" t="s">
         <v>87</v>
       </c>
       <c r="K71">
@@ -9458,19 +9294,19 @@
       <c r="S71">
         <v>7621</v>
       </c>
-      <c r="T71" s="8" t="s">
+      <c r="T71" t="s">
         <v>28</v>
       </c>
       <c r="U71">
         <v>1</v>
       </c>
-      <c r="V71" s="8" t="s">
+      <c r="V71" t="s">
         <v>65</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
-      <c r="X71" s="8" t="s">
+      <c r="X71" t="s">
         <v>66</v>
       </c>
       <c r="Y71">
@@ -9479,8 +9315,6 @@
       <c r="Z71">
         <v>1.5</v>
       </c>
-      <c r="AA71" s="8"/>
-      <c r="AF71" s="8"/>
       <c r="AG71">
         <v>20</v>
       </c>
@@ -9535,19 +9369,19 @@
       <c r="E72">
         <v>235</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" t="s">
         <v>88</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" t="s">
         <v>89</v>
       </c>
       <c r="K72">
@@ -9571,19 +9405,19 @@
       <c r="S72">
         <v>0</v>
       </c>
-      <c r="T72" s="8" t="s">
+      <c r="T72" t="s">
         <v>52</v>
       </c>
       <c r="U72">
         <v>1</v>
       </c>
-      <c r="V72" s="8" t="s">
+      <c r="V72" t="s">
         <v>67</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
-      <c r="X72" s="8" t="s">
+      <c r="X72" t="s">
         <v>68</v>
       </c>
       <c r="Y72">
@@ -9592,8 +9426,6 @@
       <c r="Z72">
         <v>3</v>
       </c>
-      <c r="AA72" s="8"/>
-      <c r="AF72" s="8"/>
       <c r="AG72">
         <v>55</v>
       </c>
@@ -9648,19 +9480,19 @@
       <c r="E73">
         <v>203</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" t="s">
         <v>90</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" t="s">
         <v>91</v>
       </c>
       <c r="K73">
@@ -9684,19 +9516,19 @@
       <c r="S73">
         <v>644</v>
       </c>
-      <c r="T73" s="8" t="s">
+      <c r="T73" t="s">
         <v>69</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
-      <c r="V73" s="8" t="s">
+      <c r="V73" t="s">
         <v>70</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
-      <c r="X73" s="8" t="s">
+      <c r="X73" t="s">
         <v>71</v>
       </c>
       <c r="Y73">
@@ -9705,8 +9537,6 @@
       <c r="Z73">
         <v>12</v>
       </c>
-      <c r="AA73" s="8"/>
-      <c r="AF73" s="8"/>
       <c r="AG73">
         <v>100</v>
       </c>
@@ -9761,19 +9591,19 @@
       <c r="E74">
         <v>1087</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" t="s">
         <v>27</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" t="s">
         <v>92</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" t="s">
         <v>93</v>
       </c>
       <c r="K74">
@@ -9797,19 +9627,19 @@
       <c r="S74">
         <v>296</v>
       </c>
-      <c r="T74" s="8" t="s">
+      <c r="T74" t="s">
         <v>27</v>
       </c>
       <c r="U74">
         <v>1</v>
       </c>
-      <c r="V74" s="8" t="s">
+      <c r="V74" t="s">
         <v>72</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
-      <c r="X74" s="8" t="s">
+      <c r="X74" t="s">
         <v>73</v>
       </c>
       <c r="Y74">
@@ -9818,8 +9648,6 @@
       <c r="Z74">
         <v>12</v>
       </c>
-      <c r="AA74" s="8"/>
-      <c r="AF74" s="8"/>
       <c r="AG74">
         <v>34</v>
       </c>
@@ -9874,19 +9702,19 @@
       <c r="E75">
         <v>1158</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" t="s">
         <v>27</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" t="s">
         <v>94</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" t="s">
         <v>95</v>
       </c>
       <c r="K75">
@@ -9910,19 +9738,19 @@
       <c r="S75">
         <v>10144</v>
       </c>
-      <c r="T75" s="8" t="s">
+      <c r="T75" t="s">
         <v>21</v>
       </c>
       <c r="U75">
         <v>1</v>
       </c>
-      <c r="V75" s="8" t="s">
+      <c r="V75" t="s">
         <v>74</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
-      <c r="X75" s="8" t="s">
+      <c r="X75" t="s">
         <v>75</v>
       </c>
       <c r="Y75">
@@ -9931,8 +9759,6 @@
       <c r="Z75">
         <v>999</v>
       </c>
-      <c r="AA75" s="8"/>
-      <c r="AF75" s="8"/>
       <c r="AG75">
         <v>22</v>
       </c>
@@ -9987,19 +9813,19 @@
       <c r="E76">
         <v>3519</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" t="s">
         <v>96</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" t="s">
         <v>97</v>
       </c>
       <c r="K76">
@@ -10023,19 +9849,19 @@
       <c r="S76">
         <v>2360</v>
       </c>
-      <c r="T76" s="8" t="s">
+      <c r="T76" t="s">
         <v>76</v>
       </c>
       <c r="U76">
         <v>1</v>
       </c>
-      <c r="V76" s="8" t="s">
+      <c r="V76" t="s">
         <v>77</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
-      <c r="X76" s="8" t="s">
+      <c r="X76" t="s">
         <v>78</v>
       </c>
       <c r="Y76">
@@ -10044,8 +9870,6 @@
       <c r="Z76">
         <v>999</v>
       </c>
-      <c r="AA76" s="8"/>
-      <c r="AF76" s="8"/>
       <c r="AG76">
         <v>2</v>
       </c>
@@ -10100,19 +9924,19 @@
       <c r="E77">
         <v>2648</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" t="s">
         <v>29</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" t="s">
         <v>98</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" t="s">
         <v>99</v>
       </c>
       <c r="K77">
@@ -10136,19 +9960,19 @@
       <c r="S77">
         <v>4272</v>
       </c>
-      <c r="T77" s="8" t="s">
+      <c r="T77" t="s">
         <v>52</v>
       </c>
       <c r="U77">
         <v>1</v>
       </c>
-      <c r="V77" s="8" t="s">
+      <c r="V77" t="s">
         <v>79</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
-      <c r="X77" s="8" t="s">
+      <c r="X77" t="s">
         <v>80</v>
       </c>
       <c r="Y77">
@@ -10157,8 +9981,6 @@
       <c r="Z77">
         <v>12</v>
       </c>
-      <c r="AA77" s="8"/>
-      <c r="AF77" s="8"/>
       <c r="AG77">
         <v>43</v>
       </c>
@@ -10213,19 +10035,19 @@
       <c r="E78">
         <v>284</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" t="s">
         <v>26</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" t="s">
         <v>100</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" t="s">
         <v>101</v>
       </c>
       <c r="K78">
@@ -10249,19 +10071,19 @@
       <c r="S78">
         <v>2432</v>
       </c>
-      <c r="T78" s="8" t="s">
+      <c r="T78" t="s">
         <v>29</v>
       </c>
       <c r="U78">
         <v>1</v>
       </c>
-      <c r="V78" s="8" t="s">
+      <c r="V78" t="s">
         <v>81</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
-      <c r="X78" s="8" t="s">
+      <c r="X78" t="s">
         <v>82</v>
       </c>
       <c r="Y78">
@@ -10270,8 +10092,6 @@
       <c r="Z78">
         <v>24</v>
       </c>
-      <c r="AA78" s="8"/>
-      <c r="AF78" s="8"/>
       <c r="AG78">
         <v>46</v>
       </c>
@@ -10326,19 +10146,19 @@
       <c r="E79">
         <v>85</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" t="s">
         <v>27</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" t="s">
         <v>102</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" t="s">
         <v>103</v>
       </c>
       <c r="K79">
@@ -10362,19 +10182,19 @@
       <c r="S79">
         <v>420</v>
       </c>
-      <c r="T79" s="8" t="s">
+      <c r="T79" t="s">
         <v>15</v>
       </c>
       <c r="U79">
         <v>1</v>
       </c>
-      <c r="V79" s="8" t="s">
+      <c r="V79" t="s">
         <v>55</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
-      <c r="X79" s="8" t="s">
+      <c r="X79" t="s">
         <v>83</v>
       </c>
       <c r="Y79">
@@ -10383,8 +10203,6 @@
       <c r="Z79">
         <v>2</v>
       </c>
-      <c r="AA79" s="8"/>
-      <c r="AF79" s="8"/>
       <c r="AG79">
         <v>86</v>
       </c>
@@ -10439,19 +10257,19 @@
       <c r="E80">
         <v>260</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" t="s">
         <v>29</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" t="s">
         <v>104</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" t="s">
         <v>105</v>
       </c>
       <c r="K80">
@@ -10475,19 +10293,19 @@
       <c r="S80">
         <v>216</v>
       </c>
-      <c r="T80" s="8" t="s">
+      <c r="T80" t="s">
         <v>15</v>
       </c>
       <c r="U80">
         <v>1</v>
       </c>
-      <c r="V80" s="8" t="s">
+      <c r="V80" t="s">
         <v>84</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
-      <c r="X80" s="8" t="s">
+      <c r="X80" t="s">
         <v>85</v>
       </c>
       <c r="Y80">
@@ -10496,8 +10314,6 @@
       <c r="Z80">
         <v>1.5</v>
       </c>
-      <c r="AA80" s="8"/>
-      <c r="AF80" s="8"/>
       <c r="AG80">
         <v>33</v>
       </c>
@@ -10552,19 +10368,19 @@
       <c r="E81">
         <v>1070</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" t="s">
         <v>106</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" t="s">
         <v>107</v>
       </c>
       <c r="K81">
@@ -10588,19 +10404,19 @@
       <c r="S81">
         <v>311</v>
       </c>
-      <c r="T81" s="8" t="s">
+      <c r="T81" t="s">
         <v>15</v>
       </c>
       <c r="U81">
         <v>1</v>
       </c>
-      <c r="V81" s="8" t="s">
+      <c r="V81" t="s">
         <v>86</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
-      <c r="X81" s="8" t="s">
+      <c r="X81" t="s">
         <v>87</v>
       </c>
       <c r="Y81">
@@ -10609,8 +10425,6 @@
       <c r="Z81">
         <v>3</v>
       </c>
-      <c r="AA81" s="8"/>
-      <c r="AF81" s="8"/>
       <c r="AG81">
         <v>61</v>
       </c>
@@ -10665,19 +10479,19 @@
       <c r="E82">
         <v>823</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" t="s">
         <v>106</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" t="s">
         <v>107</v>
       </c>
       <c r="K82">
@@ -10701,19 +10515,19 @@
       <c r="S82">
         <v>235</v>
       </c>
-      <c r="T82" s="8" t="s">
+      <c r="T82" t="s">
         <v>12</v>
       </c>
       <c r="U82">
         <v>1</v>
       </c>
-      <c r="V82" s="8" t="s">
+      <c r="V82" t="s">
         <v>88</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
-      <c r="X82" s="8" t="s">
+      <c r="X82" t="s">
         <v>89</v>
       </c>
       <c r="Y82">
@@ -10722,8 +10536,6 @@
       <c r="Z82">
         <v>1</v>
       </c>
-      <c r="AA82" s="8"/>
-      <c r="AF82" s="8"/>
       <c r="AG82">
         <v>85</v>
       </c>
@@ -10778,19 +10590,19 @@
       <c r="E83">
         <v>4166</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" t="s">
         <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H83" t="s">
         <v>108</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" t="s">
         <v>109</v>
       </c>
       <c r="K83">
@@ -10814,19 +10626,19 @@
       <c r="S83">
         <v>203</v>
       </c>
-      <c r="T83" s="8" t="s">
+      <c r="T83" t="s">
         <v>15</v>
       </c>
       <c r="U83">
         <v>1</v>
       </c>
-      <c r="V83" s="8" t="s">
+      <c r="V83" t="s">
         <v>90</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
-      <c r="X83" s="8" t="s">
+      <c r="X83" t="s">
         <v>91</v>
       </c>
       <c r="Y83">
@@ -10835,8 +10647,6 @@
       <c r="Z83">
         <v>1</v>
       </c>
-      <c r="AA83" s="8"/>
-      <c r="AF83" s="8"/>
       <c r="AG83">
         <v>65</v>
       </c>
@@ -10891,19 +10701,19 @@
       <c r="E84">
         <v>132</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" t="s">
         <v>110</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" t="s">
         <v>111</v>
       </c>
       <c r="K84">
@@ -10927,19 +10737,19 @@
       <c r="S84">
         <v>1087</v>
       </c>
-      <c r="T84" s="8" t="s">
+      <c r="T84" t="s">
         <v>27</v>
       </c>
       <c r="U84">
         <v>1</v>
       </c>
-      <c r="V84" s="8" t="s">
+      <c r="V84" t="s">
         <v>92</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
-      <c r="X84" s="8" t="s">
+      <c r="X84" t="s">
         <v>93</v>
       </c>
       <c r="Y84">
@@ -10948,8 +10758,6 @@
       <c r="Z84">
         <v>12</v>
       </c>
-      <c r="AA84" s="8"/>
-      <c r="AF84" s="8"/>
       <c r="AG84">
         <v>97</v>
       </c>
@@ -11004,19 +10812,19 @@
       <c r="E85">
         <v>4587</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" t="s">
         <v>28</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" t="s">
         <v>112</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" t="s">
         <v>113</v>
       </c>
       <c r="K85">
@@ -11040,19 +10848,19 @@
       <c r="S85">
         <v>1158</v>
       </c>
-      <c r="T85" s="8" t="s">
+      <c r="T85" t="s">
         <v>27</v>
       </c>
       <c r="U85">
         <v>1</v>
       </c>
-      <c r="V85" s="8" t="s">
+      <c r="V85" t="s">
         <v>94</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
-      <c r="X85" s="8" t="s">
+      <c r="X85" t="s">
         <v>95</v>
       </c>
       <c r="Y85">
@@ -11061,8 +10869,6 @@
       <c r="Z85">
         <v>12</v>
       </c>
-      <c r="AA85" s="8"/>
-      <c r="AF85" s="8"/>
       <c r="AG85">
         <v>18</v>
       </c>
@@ -11117,19 +10923,19 @@
       <c r="E86">
         <v>1335</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" t="s">
         <v>15</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" t="s">
         <v>114</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" t="s">
         <v>115</v>
       </c>
       <c r="K86">
@@ -11153,19 +10959,19 @@
       <c r="S86">
         <v>3519</v>
       </c>
-      <c r="T86" s="8" t="s">
+      <c r="T86" t="s">
         <v>15</v>
       </c>
       <c r="U86">
         <v>1</v>
       </c>
-      <c r="V86" s="8" t="s">
+      <c r="V86" t="s">
         <v>96</v>
       </c>
       <c r="W86">
         <v>0</v>
       </c>
-      <c r="X86" s="8" t="s">
+      <c r="X86" t="s">
         <v>97</v>
       </c>
       <c r="Y86">
@@ -11174,8 +10980,6 @@
       <c r="Z86">
         <v>1</v>
       </c>
-      <c r="AA86" s="8"/>
-      <c r="AF86" s="8"/>
       <c r="AG86">
         <v>10</v>
       </c>
@@ -11230,19 +11034,19 @@
       <c r="E87">
         <v>226</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" t="s">
         <v>116</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" t="s">
         <v>117</v>
       </c>
       <c r="K87">
@@ -11266,19 +11070,19 @@
       <c r="S87">
         <v>2648</v>
       </c>
-      <c r="T87" s="8" t="s">
+      <c r="T87" t="s">
         <v>29</v>
       </c>
       <c r="U87">
         <v>1</v>
       </c>
-      <c r="V87" s="8" t="s">
+      <c r="V87" t="s">
         <v>98</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
-      <c r="X87" s="8" t="s">
+      <c r="X87" t="s">
         <v>99</v>
       </c>
       <c r="Y87">
@@ -11287,8 +11091,6 @@
       <c r="Z87">
         <v>12</v>
       </c>
-      <c r="AA87" s="8"/>
-      <c r="AF87" s="8"/>
       <c r="AG87">
         <v>80</v>
       </c>
@@ -11343,19 +11145,19 @@
       <c r="E88">
         <v>1471</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" t="s">
         <v>118</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" t="s">
         <v>119</v>
       </c>
       <c r="K88">
@@ -11379,19 +11181,19 @@
       <c r="S88">
         <v>284</v>
       </c>
-      <c r="T88" s="8" t="s">
+      <c r="T88" t="s">
         <v>26</v>
       </c>
       <c r="U88">
         <v>1</v>
       </c>
-      <c r="V88" s="8" t="s">
+      <c r="V88" t="s">
         <v>100</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
-      <c r="X88" s="8" t="s">
+      <c r="X88" t="s">
         <v>101</v>
       </c>
       <c r="Y88">
@@ -11400,8 +11202,6 @@
       <c r="Z88">
         <v>999</v>
       </c>
-      <c r="AA88" s="8"/>
-      <c r="AF88" s="8"/>
       <c r="AG88">
         <v>99</v>
       </c>
@@ -11456,19 +11256,19 @@
       <c r="E89">
         <v>1515</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" t="s">
         <v>17</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" t="s">
         <v>120</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" t="s">
         <v>121</v>
       </c>
       <c r="K89">
@@ -11492,19 +11292,19 @@
       <c r="S89">
         <v>85</v>
       </c>
-      <c r="T89" s="8" t="s">
+      <c r="T89" t="s">
         <v>27</v>
       </c>
       <c r="U89">
         <v>1</v>
       </c>
-      <c r="V89" s="8" t="s">
+      <c r="V89" t="s">
         <v>102</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
-      <c r="X89" s="8" t="s">
+      <c r="X89" t="s">
         <v>103</v>
       </c>
       <c r="Y89">
@@ -11513,8 +11313,6 @@
       <c r="Z89">
         <v>6</v>
       </c>
-      <c r="AA89" s="8"/>
-      <c r="AF89" s="8"/>
       <c r="AG89">
         <v>47</v>
       </c>
@@ -11569,19 +11367,19 @@
       <c r="E90">
         <v>11513</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" t="s">
         <v>21</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" t="s">
         <v>122</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" t="s">
         <v>123</v>
       </c>
       <c r="K90">
@@ -11605,19 +11403,19 @@
       <c r="S90">
         <v>260</v>
       </c>
-      <c r="T90" s="8" t="s">
+      <c r="T90" t="s">
         <v>29</v>
       </c>
       <c r="U90">
         <v>1</v>
       </c>
-      <c r="V90" s="8" t="s">
+      <c r="V90" t="s">
         <v>104</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
-      <c r="X90" s="8" t="s">
+      <c r="X90" t="s">
         <v>105</v>
       </c>
       <c r="Y90">
@@ -11626,8 +11424,6 @@
       <c r="Z90">
         <v>12</v>
       </c>
-      <c r="AA90" s="8"/>
-      <c r="AF90" s="8"/>
       <c r="AG90">
         <v>42</v>
       </c>
@@ -11682,19 +11478,19 @@
       <c r="E91">
         <v>26644</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" t="s">
         <v>21</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" t="s">
         <v>124</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" t="s">
         <v>125</v>
       </c>
       <c r="K91">
@@ -11718,19 +11514,19 @@
       <c r="S91">
         <v>1070</v>
       </c>
-      <c r="T91" s="8" t="s">
+      <c r="T91" t="s">
         <v>17</v>
       </c>
       <c r="U91">
         <v>1</v>
       </c>
-      <c r="V91" s="8" t="s">
+      <c r="V91" t="s">
         <v>106</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
-      <c r="X91" s="8" t="s">
+      <c r="X91" t="s">
         <v>107</v>
       </c>
       <c r="Y91">
@@ -11739,8 +11535,6 @@
       <c r="Z91">
         <v>2</v>
       </c>
-      <c r="AA91" s="8"/>
-      <c r="AF91" s="8"/>
       <c r="AG91">
         <v>31</v>
       </c>
@@ -11795,19 +11589,19 @@
       <c r="E92">
         <v>1544</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" t="s">
         <v>15</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" t="s">
         <v>126</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" t="s">
         <v>127</v>
       </c>
       <c r="K92">
@@ -11831,19 +11625,19 @@
       <c r="S92">
         <v>823</v>
       </c>
-      <c r="T92" s="8" t="s">
+      <c r="T92" t="s">
         <v>17</v>
       </c>
       <c r="U92">
         <v>1</v>
       </c>
-      <c r="V92" s="8" t="s">
+      <c r="V92" t="s">
         <v>106</v>
       </c>
       <c r="W92">
         <v>0</v>
       </c>
-      <c r="X92" s="8" t="s">
+      <c r="X92" t="s">
         <v>107</v>
       </c>
       <c r="Y92">
@@ -11852,8 +11646,6 @@
       <c r="Z92">
         <v>2</v>
       </c>
-      <c r="AA92" s="8"/>
-      <c r="AF92" s="8"/>
       <c r="AG92">
         <v>37</v>
       </c>
@@ -11908,19 +11700,19 @@
       <c r="E93">
         <v>1965</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" t="s">
         <v>26</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" t="s">
         <v>128</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" t="s">
         <v>129</v>
       </c>
       <c r="K93">
@@ -11944,19 +11736,19 @@
       <c r="S93">
         <v>4166</v>
       </c>
-      <c r="T93" s="8" t="s">
+      <c r="T93" t="s">
         <v>38</v>
       </c>
       <c r="U93">
         <v>1</v>
       </c>
-      <c r="V93" s="8" t="s">
+      <c r="V93" t="s">
         <v>108</v>
       </c>
       <c r="W93">
         <v>0</v>
       </c>
-      <c r="X93" s="8" t="s">
+      <c r="X93" t="s">
         <v>109</v>
       </c>
       <c r="Y93">
@@ -11965,8 +11757,6 @@
       <c r="Z93">
         <v>12</v>
       </c>
-      <c r="AA93" s="8"/>
-      <c r="AF93" s="8"/>
       <c r="AG93">
         <v>5</v>
       </c>
@@ -12021,19 +11811,19 @@
       <c r="E94">
         <v>2454</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" t="s">
         <v>27</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" t="s">
         <v>130</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" t="s">
         <v>20</v>
       </c>
       <c r="K94">
@@ -12057,19 +11847,19 @@
       <c r="S94">
         <v>132</v>
       </c>
-      <c r="T94" s="8" t="s">
+      <c r="T94" t="s">
         <v>12</v>
       </c>
       <c r="U94">
         <v>1</v>
       </c>
-      <c r="V94" s="8" t="s">
+      <c r="V94" t="s">
         <v>110</v>
       </c>
       <c r="W94">
         <v>0</v>
       </c>
-      <c r="X94" s="8" t="s">
+      <c r="X94" t="s">
         <v>111</v>
       </c>
       <c r="Y94">
@@ -12078,8 +11868,6 @@
       <c r="Z94">
         <v>2</v>
       </c>
-      <c r="AA94" s="8"/>
-      <c r="AF94" s="8"/>
       <c r="AG94">
         <v>19</v>
       </c>
@@ -12134,19 +11922,19 @@
       <c r="E95">
         <v>868</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H95" t="s">
         <v>131</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" t="s">
         <v>132</v>
       </c>
       <c r="K95">
@@ -12170,19 +11958,19 @@
       <c r="S95">
         <v>4587</v>
       </c>
-      <c r="T95" s="8" t="s">
+      <c r="T95" t="s">
         <v>28</v>
       </c>
       <c r="U95">
         <v>1</v>
       </c>
-      <c r="V95" s="8" t="s">
+      <c r="V95" t="s">
         <v>112</v>
       </c>
       <c r="W95">
         <v>0</v>
       </c>
-      <c r="X95" s="8" t="s">
+      <c r="X95" t="s">
         <v>113</v>
       </c>
       <c r="Y95">
@@ -12191,8 +11979,6 @@
       <c r="Z95">
         <v>12</v>
       </c>
-      <c r="AA95" s="8"/>
-      <c r="AF95" s="8"/>
       <c r="AG95">
         <v>57</v>
       </c>
@@ -12247,19 +12033,19 @@
       <c r="E96">
         <v>1276</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" t="s">
         <v>133</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" t="s">
         <v>134</v>
       </c>
       <c r="K96">
@@ -12283,19 +12069,19 @@
       <c r="S96">
         <v>1335</v>
       </c>
-      <c r="T96" s="8" t="s">
+      <c r="T96" t="s">
         <v>15</v>
       </c>
       <c r="U96">
         <v>1</v>
       </c>
-      <c r="V96" s="8" t="s">
+      <c r="V96" t="s">
         <v>114</v>
       </c>
       <c r="W96">
         <v>0</v>
       </c>
-      <c r="X96" s="8" t="s">
+      <c r="X96" t="s">
         <v>115</v>
       </c>
       <c r="Y96">
@@ -12304,8 +12090,6 @@
       <c r="Z96">
         <v>1</v>
       </c>
-      <c r="AA96" s="8"/>
-      <c r="AF96" s="8"/>
       <c r="AG96">
         <v>77</v>
       </c>
@@ -12360,19 +12144,19 @@
       <c r="E97">
         <v>4494</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" t="s">
         <v>26</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" t="s">
         <v>135</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" t="s">
         <v>37</v>
       </c>
       <c r="K97">
@@ -12396,19 +12180,19 @@
       <c r="S97">
         <v>226</v>
       </c>
-      <c r="T97" s="8" t="s">
+      <c r="T97" t="s">
         <v>12</v>
       </c>
       <c r="U97">
         <v>1</v>
       </c>
-      <c r="V97" s="8" t="s">
+      <c r="V97" t="s">
         <v>116</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
-      <c r="X97" s="8" t="s">
+      <c r="X97" t="s">
         <v>117</v>
       </c>
       <c r="Y97">
@@ -12417,8 +12201,6 @@
       <c r="Z97">
         <v>3</v>
       </c>
-      <c r="AA97" s="8"/>
-      <c r="AF97" s="8"/>
       <c r="AG97">
         <v>27</v>
       </c>
@@ -12473,19 +12255,19 @@
       <c r="E98">
         <v>7998</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" t="s">
         <v>28</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" t="s">
         <v>136</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" t="s">
         <v>137</v>
       </c>
       <c r="K98">
@@ -12509,19 +12291,19 @@
       <c r="S98">
         <v>1471</v>
       </c>
-      <c r="T98" s="8" t="s">
+      <c r="T98" t="s">
         <v>17</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
-      <c r="V98" s="8" t="s">
+      <c r="V98" t="s">
         <v>118</v>
       </c>
       <c r="W98">
         <v>0</v>
       </c>
-      <c r="X98" s="8" t="s">
+      <c r="X98" t="s">
         <v>119</v>
       </c>
       <c r="Y98">
@@ -12530,8 +12312,6 @@
       <c r="Z98">
         <v>6</v>
       </c>
-      <c r="AA98" s="8"/>
-      <c r="AF98" s="8"/>
       <c r="AG98">
         <v>6</v>
       </c>
@@ -12586,19 +12366,19 @@
       <c r="E99">
         <v>553</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" t="s">
         <v>138</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" t="s">
         <v>139</v>
       </c>
       <c r="K99">
@@ -12622,19 +12402,19 @@
       <c r="S99">
         <v>1515</v>
       </c>
-      <c r="T99" s="8" t="s">
+      <c r="T99" t="s">
         <v>17</v>
       </c>
       <c r="U99">
         <v>1</v>
       </c>
-      <c r="V99" s="8" t="s">
+      <c r="V99" t="s">
         <v>120</v>
       </c>
       <c r="W99">
         <v>0</v>
       </c>
-      <c r="X99" s="8" t="s">
+      <c r="X99" t="s">
         <v>121</v>
       </c>
       <c r="Y99">
@@ -12643,8 +12423,6 @@
       <c r="Z99">
         <v>3</v>
       </c>
-      <c r="AA99" s="8"/>
-      <c r="AF99" s="8"/>
       <c r="AG99">
         <v>89</v>
       </c>
@@ -12684,9 +12462,7 @@
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="J100" s="8" t="s">
+      <c r="J100" t="s">
         <v>139</v>
       </c>
       <c r="K100">
@@ -12710,19 +12486,19 @@
       <c r="S100">
         <v>11513</v>
       </c>
-      <c r="T100" s="8" t="s">
+      <c r="T100" t="s">
         <v>21</v>
       </c>
       <c r="U100">
         <v>1</v>
       </c>
-      <c r="V100" s="8" t="s">
+      <c r="V100" t="s">
         <v>122</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
-      <c r="X100" s="8" t="s">
+      <c r="X100" t="s">
         <v>123</v>
       </c>
       <c r="Y100">
@@ -12731,13 +12507,9 @@
       <c r="Z100">
         <v>1</v>
       </c>
-      <c r="AA100" s="8"/>
-      <c r="AF100" s="8"/>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="J101" t="s">
         <v>139</v>
       </c>
       <c r="K101">
@@ -12761,19 +12533,19 @@
       <c r="S101">
         <v>26644</v>
       </c>
-      <c r="T101" s="8" t="s">
+      <c r="T101" t="s">
         <v>21</v>
       </c>
       <c r="U101">
         <v>1</v>
       </c>
-      <c r="V101" s="8" t="s">
+      <c r="V101" t="s">
         <v>124</v>
       </c>
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101" s="8" t="s">
+      <c r="X101" t="s">
         <v>125</v>
       </c>
       <c r="Y101">
@@ -12782,13 +12554,9 @@
       <c r="Z101">
         <v>36</v>
       </c>
-      <c r="AA101" s="8"/>
-      <c r="AF101" s="8"/>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="J102" t="s">
         <v>139</v>
       </c>
       <c r="K102">
@@ -12812,19 +12580,19 @@
       <c r="S102">
         <v>1544</v>
       </c>
-      <c r="T102" s="8" t="s">
+      <c r="T102" t="s">
         <v>15</v>
       </c>
       <c r="U102">
         <v>1</v>
       </c>
-      <c r="V102" s="8" t="s">
+      <c r="V102" t="s">
         <v>126</v>
       </c>
       <c r="W102">
         <v>0</v>
       </c>
-      <c r="X102" s="8" t="s">
+      <c r="X102" t="s">
         <v>127</v>
       </c>
       <c r="Y102">
@@ -12833,13 +12601,9 @@
       <c r="Z102">
         <v>1</v>
       </c>
-      <c r="AA102" s="8"/>
-      <c r="AF102" s="8"/>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="J103" t="s">
         <v>139</v>
       </c>
       <c r="K103">
@@ -12863,19 +12627,19 @@
       <c r="S103">
         <v>1965</v>
       </c>
-      <c r="T103" s="8" t="s">
+      <c r="T103" t="s">
         <v>26</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
-      <c r="V103" s="8" t="s">
+      <c r="V103" t="s">
         <v>128</v>
       </c>
       <c r="W103">
         <v>0</v>
       </c>
-      <c r="X103" s="8" t="s">
+      <c r="X103" t="s">
         <v>129</v>
       </c>
       <c r="Y103">
@@ -12884,13 +12648,9 @@
       <c r="Z103">
         <v>1</v>
       </c>
-      <c r="AA103" s="8"/>
-      <c r="AF103" s="8"/>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="J104" t="s">
         <v>139</v>
       </c>
       <c r="K104">
@@ -12914,19 +12674,19 @@
       <c r="S104">
         <v>2454</v>
       </c>
-      <c r="T104" s="8" t="s">
+      <c r="T104" t="s">
         <v>27</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
-      <c r="V104" s="8" t="s">
+      <c r="V104" t="s">
         <v>130</v>
       </c>
       <c r="W104">
         <v>0</v>
       </c>
-      <c r="X104" s="8" t="s">
+      <c r="X104" t="s">
         <v>20</v>
       </c>
       <c r="Y104">
@@ -12935,13 +12695,9 @@
       <c r="Z104">
         <v>24</v>
       </c>
-      <c r="AA104" s="8"/>
-      <c r="AF104" s="8"/>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="J105" s="8" t="s">
+      <c r="J105" t="s">
         <v>139</v>
       </c>
       <c r="K105">
@@ -12965,19 +12721,19 @@
       <c r="S105">
         <v>868</v>
       </c>
-      <c r="T105" s="8" t="s">
+      <c r="T105" t="s">
         <v>17</v>
       </c>
       <c r="U105">
         <v>1</v>
       </c>
-      <c r="V105" s="8" t="s">
+      <c r="V105" t="s">
         <v>131</v>
       </c>
       <c r="W105">
         <v>0</v>
       </c>
-      <c r="X105" s="8" t="s">
+      <c r="X105" t="s">
         <v>132</v>
       </c>
       <c r="Y105">
@@ -12986,13 +12742,9 @@
       <c r="Z105">
         <v>12</v>
       </c>
-      <c r="AA105" s="8"/>
-      <c r="AF105" s="8"/>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="J106" s="8" t="s">
+      <c r="J106" t="s">
         <v>139</v>
       </c>
       <c r="K106">
@@ -13016,19 +12768,19 @@
       <c r="S106">
         <v>1276</v>
       </c>
-      <c r="T106" s="8" t="s">
+      <c r="T106" t="s">
         <v>17</v>
       </c>
       <c r="U106">
         <v>1</v>
       </c>
-      <c r="V106" s="8" t="s">
+      <c r="V106" t="s">
         <v>133</v>
       </c>
       <c r="W106">
         <v>0</v>
       </c>
-      <c r="X106" s="8" t="s">
+      <c r="X106" t="s">
         <v>134</v>
       </c>
       <c r="Y106">
@@ -13037,13 +12789,9 @@
       <c r="Z106">
         <v>3</v>
       </c>
-      <c r="AA106" s="8"/>
-      <c r="AF106" s="8"/>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="J107" s="8" t="s">
+      <c r="J107" t="s">
         <v>139</v>
       </c>
       <c r="K107">
@@ -13067,19 +12815,19 @@
       <c r="S107">
         <v>4494</v>
       </c>
-      <c r="T107" s="8" t="s">
+      <c r="T107" t="s">
         <v>26</v>
       </c>
       <c r="U107">
         <v>1</v>
       </c>
-      <c r="V107" s="8" t="s">
+      <c r="V107" t="s">
         <v>135</v>
       </c>
       <c r="W107">
         <v>0</v>
       </c>
-      <c r="X107" s="8" t="s">
+      <c r="X107" t="s">
         <v>37</v>
       </c>
       <c r="Y107">
@@ -13088,13 +12836,9 @@
       <c r="Z107">
         <v>24</v>
       </c>
-      <c r="AA107" s="8"/>
-      <c r="AF107" s="8"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="J108" t="s">
         <v>139</v>
       </c>
       <c r="K108">
@@ -13118,19 +12862,19 @@
       <c r="S108">
         <v>7998</v>
       </c>
-      <c r="T108" s="8" t="s">
+      <c r="T108" t="s">
         <v>28</v>
       </c>
       <c r="U108">
         <v>1</v>
       </c>
-      <c r="V108" s="8" t="s">
+      <c r="V108" t="s">
         <v>136</v>
       </c>
       <c r="W108">
         <v>0</v>
       </c>
-      <c r="X108" s="8" t="s">
+      <c r="X108" t="s">
         <v>137</v>
       </c>
       <c r="Y108">
@@ -13139,13 +12883,9 @@
       <c r="Z108">
         <v>6</v>
       </c>
-      <c r="AA108" s="8"/>
-      <c r="AF108" s="8"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="F109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="J109" s="8" t="s">
+      <c r="J109" t="s">
         <v>139</v>
       </c>
       <c r="K109">
@@ -13169,19 +12909,19 @@
       <c r="S109">
         <v>553</v>
       </c>
-      <c r="T109" s="8" t="s">
+      <c r="T109" t="s">
         <v>19</v>
       </c>
       <c r="U109">
         <v>1</v>
       </c>
-      <c r="V109" s="8" t="s">
+      <c r="V109" t="s">
         <v>138</v>
       </c>
       <c r="W109">
         <v>0</v>
       </c>
-      <c r="X109" s="8" t="s">
+      <c r="X109" t="s">
         <v>139</v>
       </c>
       <c r="Y109">
@@ -13190,8 +12930,6 @@
       <c r="Z109">
         <v>999</v>
       </c>
-      <c r="AA109" s="8"/>
-      <c r="AF109" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AG1:AG99">
